--- a/EKU Work Thing/bin/x86/Release/Template/template.xlsx
+++ b/EKU Work Thing/bin/x86/Release/Template/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it\Dropbox\EKU Reporting Software Testing Alpha\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it\Documents\Visual Studio 2015\Projects\EKU Work Thing\EKU Work Thing\bin\x86\Release\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4845" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21C8E16D-BF69-40A4-BAFD-8CF5A445B5EB}" type="CELLRANGE">
+                    <a:fld id="{D6CE0613-A1C8-436F-8140-1002C50397B4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -762,7 +762,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8563F56B-0EFD-4973-9585-51BFF8BA6AC3}" type="CELLRANGE">
+                    <a:fld id="{7263479D-E156-4198-B694-357554715DF6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -798,7 +798,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C616C2A6-2BE7-4629-85F2-4BB0F237B546}" type="CELLRANGE">
+                    <a:fld id="{D05B8890-A2A8-4DE0-A8B0-63568B560811}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -834,7 +834,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C720050-968F-4ED8-881C-ACB234A50CE9}" type="CELLRANGE">
+                    <a:fld id="{CB4868CD-6B50-4D32-A826-DC568FDFE67B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -870,7 +870,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{080D1C55-2505-454F-95FA-2A845378DA7D}" type="CELLRANGE">
+                    <a:fld id="{0600E67C-96DA-4FB4-B3BA-97D8722F56CA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -906,7 +906,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD34D744-095A-4320-A7ED-460DCB29135E}" type="CELLRANGE">
+                    <a:fld id="{513DE892-BB01-4568-9088-93B15D2E44D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -942,7 +942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F472C70D-8EEF-42E9-B7F5-FA2B3B60D574}" type="CELLRANGE">
+                    <a:fld id="{FCEBCC5F-71EF-481E-B398-57E5FEBA4AAD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -978,7 +978,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{457ED774-D844-41A6-83E8-030806F0CA53}" type="CELLRANGE">
+                    <a:fld id="{2ED777DD-1937-4F95-BBF1-63F3C6D3D579}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1014,7 +1014,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ABB0ADC2-A0B1-4769-B0C7-A0E4A2BC082D}" type="CELLRANGE">
+                    <a:fld id="{1AC866BD-9296-4687-B579-1BD9FAC96F92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1079,7 +1079,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1182,8 +1181,8 @@
         </c:dLbls>
         <c:gapWidth val="68"/>
         <c:overlap val="100"/>
-        <c:axId val="260761152"/>
-        <c:axId val="477841192"/>
+        <c:axId val="463785632"/>
+        <c:axId val="463785240"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1288,7 +1287,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="260761152"/>
+        <c:axId val="463785632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477841192"/>
+        <c:crossAx val="463785240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1338,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477841192"/>
+        <c:axId val="463785240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260761152"/>
+        <c:crossAx val="463785632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1679,6 +1678,59 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Needing Maintenance</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{704F4674-DFC8-4D95-B643-28E7BAB64856}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{048B1D9B-248C-434C-AAE2-9EA149F1D219}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2763,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3796,8 +3848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
